--- a/MDO/client-assets/assets/common/user-bulk-creation-upload-sample/user-bulk-upload-default-values.xlsx
+++ b/MDO/client-assets/assets/common/user-bulk-creation-upload-sample/user-bulk-upload-default-values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGOT_NIC\Assets\forked\sunbird-cb-portal-assets\MDO\client-assets\assets\common\user-bulk-creation-upload-sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43322B2-1112-4F47-9825-0A069E1A5809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989CF78-F068-4F53-9C41-726FC32A6E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Designation" sheetId="1" r:id="rId1"/>
@@ -9032,7 +9032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2771"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -22993,7 +22993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3B49A-1B9D-4315-9A5B-2E3C8829B4A3}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
